--- a/yibuzhiyao-sercive/src/main/resources/student_software.xlsx
+++ b/yibuzhiyao-sercive/src/main/resources/student_software.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11940" windowHeight="5010"/>
+    <workbookView windowWidth="11940" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>序号</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>年龄</t>
+  </si>
+  <si>
+    <t>分数</t>
   </si>
   <si>
     <t>201608040201</t>
@@ -570,8 +573,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -600,6 +603,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -607,14 +617,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,6 +686,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -637,7 +701,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,85 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,13 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +779,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,115 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,31 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,6 +1077,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1091,17 +1118,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1109,17 +1125,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,7 +1155,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,25 +1174,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,133 +1192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1715,19 +1718,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1746,1545 +1749,1779 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G2" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G3" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G4" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G5" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G6" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G7" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G8" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G9" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G10" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G11" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G12" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G13" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G14" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G15" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G16" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G17" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G18" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G19" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G20" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G21" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G22" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G23" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G24" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G25" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G26" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G27" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G28" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G29" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G30" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G31" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G32" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G33" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G34" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G35" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G36" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G37" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G38" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G39" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G40" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G41" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G42" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G43" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G44" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G45" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G46" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G47" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G48" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G49" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G50" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F51" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G51" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G52" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F53" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G53" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F54" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G54" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F55" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G55" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F56" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G56" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F57" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G57" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F58" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G58" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F59" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G59" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G60" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G61" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F62" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G62" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F63" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G63" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F64" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G64" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F65" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G65" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F66" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G66" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F67" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G67" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F68" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G68" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F69" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G69" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F70" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G70" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F71" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G71" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F72" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G72" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F73" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G73" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G74" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F75" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G75" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F76" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G76" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A77" s="13">
         <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F77" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="G77" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A78" s="14">
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F78" s="9">
         <v>20</v>
+      </c>
+      <c r="G78" s="9">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3314,22 +3551,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3342,13 +3579,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3359,10 +3596,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3370,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3378,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3386,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3394,7 +3631,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3402,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3410,7 +3647,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3418,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3426,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/yibuzhiyao-sercive/src/main/resources/student_software.xlsx
+++ b/yibuzhiyao-sercive/src/main/resources/student_software.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{52A3823C-2F93-4FA1-91C1-3E4D4D989BE1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="11940" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14750" windowHeight="2200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
     <sheet name="Course" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1:G15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="183">
   <si>
     <t>序号</t>
   </si>
@@ -40,546 +41,544 @@
     <t>分数</t>
   </si>
   <si>
+    <t>马雅婷</t>
+  </si>
+  <si>
+    <t>软件162</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>房晔</t>
+  </si>
+  <si>
+    <t>201608040203</t>
+  </si>
+  <si>
+    <t>花永香</t>
+  </si>
+  <si>
+    <t>201608040204</t>
+  </si>
+  <si>
+    <t>杨曼珍</t>
+  </si>
+  <si>
+    <t>201608040205</t>
+  </si>
+  <si>
+    <t>杨旭东</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>201608040206</t>
+  </si>
+  <si>
+    <t>马茼茼</t>
+  </si>
+  <si>
+    <t>201608040207</t>
+  </si>
+  <si>
+    <t>徐银福</t>
+  </si>
+  <si>
+    <t>201608040208</t>
+  </si>
+  <si>
+    <t>吕强</t>
+  </si>
+  <si>
+    <t>201608040209</t>
+  </si>
+  <si>
+    <t>张明根</t>
+  </si>
+  <si>
+    <t>201608040210</t>
+  </si>
+  <si>
+    <t>候捷</t>
+  </si>
+  <si>
+    <t>201608040211</t>
+  </si>
+  <si>
+    <t>张耀晖</t>
+  </si>
+  <si>
+    <t>201608040212</t>
+  </si>
+  <si>
+    <t>邹过</t>
+  </si>
+  <si>
+    <t>201608040213</t>
+  </si>
+  <si>
+    <t>曹超强</t>
+  </si>
+  <si>
+    <t>201608040214</t>
+  </si>
+  <si>
+    <t>朱登航</t>
+  </si>
+  <si>
+    <t>201608040215</t>
+  </si>
+  <si>
+    <t>黄景帅</t>
+  </si>
+  <si>
+    <t>201608040216</t>
+  </si>
+  <si>
+    <t>张帅印</t>
+  </si>
+  <si>
+    <t>201608040217</t>
+  </si>
+  <si>
+    <t>孙艺轩</t>
+  </si>
+  <si>
+    <t>201608040218</t>
+  </si>
+  <si>
+    <t>赵向阳</t>
+  </si>
+  <si>
+    <t>201608040219</t>
+  </si>
+  <si>
+    <t>许帅毅</t>
+  </si>
+  <si>
+    <t>201608040220</t>
+  </si>
+  <si>
+    <t>薛二伟</t>
+  </si>
+  <si>
+    <t>201608040221</t>
+  </si>
+  <si>
+    <t>王宏飞</t>
+  </si>
+  <si>
+    <t>201608040222</t>
+  </si>
+  <si>
+    <t>姬华凯</t>
+  </si>
+  <si>
+    <t>201608040223</t>
+  </si>
+  <si>
+    <t>刘源</t>
+  </si>
+  <si>
+    <t>201608040224</t>
+  </si>
+  <si>
+    <t>徐名阳</t>
+  </si>
+  <si>
+    <t>201608040225</t>
+  </si>
+  <si>
+    <t>郭志良</t>
+  </si>
+  <si>
+    <t>201608040226</t>
+  </si>
+  <si>
+    <t>苏俊铭</t>
+  </si>
+  <si>
+    <t>201608040227</t>
+  </si>
+  <si>
+    <t>曾泽兴</t>
+  </si>
+  <si>
+    <t>201608040228</t>
+  </si>
+  <si>
+    <t>卢思童</t>
+  </si>
+  <si>
+    <t>201608040229</t>
+  </si>
+  <si>
+    <t>朱才富</t>
+  </si>
+  <si>
+    <t>201608040230</t>
+  </si>
+  <si>
+    <t>曾辉祥</t>
+  </si>
+  <si>
+    <t>201608040232</t>
+  </si>
+  <si>
+    <t>吕鑫</t>
+  </si>
+  <si>
+    <t>201608040233</t>
+  </si>
+  <si>
+    <t>高建平</t>
+  </si>
+  <si>
+    <t>201608040234</t>
+  </si>
+  <si>
+    <t>支友盟</t>
+  </si>
+  <si>
+    <t>201608040235</t>
+  </si>
+  <si>
+    <t>王斌</t>
+  </si>
+  <si>
+    <t>201606020104</t>
+  </si>
+  <si>
+    <t>包盈盈</t>
+  </si>
+  <si>
+    <t>201605020129</t>
+  </si>
+  <si>
+    <t>陈金新</t>
+  </si>
+  <si>
+    <t>201508040207</t>
+  </si>
+  <si>
+    <t>王浩杰</t>
+  </si>
+  <si>
+    <t>201508040205</t>
+  </si>
+  <si>
+    <t>刘星辰</t>
+  </si>
+  <si>
+    <t>201508040222</t>
+  </si>
+  <si>
+    <t>杨铭</t>
+  </si>
+  <si>
+    <t>201508040218</t>
+  </si>
+  <si>
+    <t>王自勇</t>
+  </si>
+  <si>
+    <t>201608040101</t>
+  </si>
+  <si>
+    <t>许孟琪</t>
+  </si>
+  <si>
+    <t>软件161</t>
+  </si>
+  <si>
+    <t>201608040102</t>
+  </si>
+  <si>
+    <t>位欣欣</t>
+  </si>
+  <si>
+    <t>201608040103</t>
+  </si>
+  <si>
+    <t>刘光月</t>
+  </si>
+  <si>
+    <t>201608040104</t>
+  </si>
+  <si>
+    <t>席安祥</t>
+  </si>
+  <si>
+    <t>201608040105</t>
+  </si>
+  <si>
+    <t>王海</t>
+  </si>
+  <si>
+    <t>201608040106</t>
+  </si>
+  <si>
+    <t>刘佳伟</t>
+  </si>
+  <si>
+    <t>201608040107</t>
+  </si>
+  <si>
+    <t>吴帆</t>
+  </si>
+  <si>
+    <t>201608040108</t>
+  </si>
+  <si>
+    <t>胡曦伟</t>
+  </si>
+  <si>
+    <t>201608040109</t>
+  </si>
+  <si>
+    <t>张浩</t>
+  </si>
+  <si>
+    <t>201608040110</t>
+  </si>
+  <si>
+    <t>刘奇</t>
+  </si>
+  <si>
+    <t>201608040111</t>
+  </si>
+  <si>
+    <t>李朋辉</t>
+  </si>
+  <si>
+    <t>201608040112</t>
+  </si>
+  <si>
+    <t>魏来凯</t>
+  </si>
+  <si>
+    <t>201608040113</t>
+  </si>
+  <si>
+    <t>姚伯乐</t>
+  </si>
+  <si>
+    <t>201608040114</t>
+  </si>
+  <si>
+    <t>刘忠亚</t>
+  </si>
+  <si>
+    <t>201608040115</t>
+  </si>
+  <si>
+    <t>王一卓</t>
+  </si>
+  <si>
+    <t>201608040116</t>
+  </si>
+  <si>
+    <t>李文博</t>
+  </si>
+  <si>
+    <t>201608040117</t>
+  </si>
+  <si>
+    <t>史谨</t>
+  </si>
+  <si>
+    <t>201608040118</t>
+  </si>
+  <si>
+    <t>庞棣</t>
+  </si>
+  <si>
+    <t>孙运升</t>
+  </si>
+  <si>
+    <t>201608040119</t>
+  </si>
+  <si>
+    <t>李学勇</t>
+  </si>
+  <si>
+    <t>201608040120</t>
+  </si>
+  <si>
+    <t>郭起</t>
+  </si>
+  <si>
+    <t>201608040121</t>
+  </si>
+  <si>
+    <t>刘怿民</t>
+  </si>
+  <si>
+    <t>201608040122</t>
+  </si>
+  <si>
+    <t>张宏权</t>
+  </si>
+  <si>
+    <t>201608040123</t>
+  </si>
+  <si>
+    <t>周成</t>
+  </si>
+  <si>
+    <t>201608040124</t>
+  </si>
+  <si>
+    <t>孙天越</t>
+  </si>
+  <si>
+    <t>201608040125</t>
+  </si>
+  <si>
+    <t>黄志高</t>
+  </si>
+  <si>
+    <t>201608040126</t>
+  </si>
+  <si>
+    <t>邹龙康</t>
+  </si>
+  <si>
+    <t>201608040127</t>
+  </si>
+  <si>
+    <t>刘宇芹</t>
+  </si>
+  <si>
+    <t>201608040128</t>
+  </si>
+  <si>
+    <t>杜清清</t>
+  </si>
+  <si>
+    <t>201608040131</t>
+  </si>
+  <si>
+    <t>刘浩</t>
+  </si>
+  <si>
+    <t>201608040132</t>
+  </si>
+  <si>
+    <t>方军</t>
+  </si>
+  <si>
+    <t>201608040133</t>
+  </si>
+  <si>
+    <t>徐子亮</t>
+  </si>
+  <si>
+    <t>201608040134</t>
+  </si>
+  <si>
+    <t>刘怡策</t>
+  </si>
+  <si>
+    <t>201608040135</t>
+  </si>
+  <si>
+    <t>蔡明</t>
+  </si>
+  <si>
+    <t>201508040109</t>
+  </si>
+  <si>
+    <t>张金登</t>
+  </si>
+  <si>
+    <t>201615010103</t>
+  </si>
+  <si>
+    <t>谢欣旖 </t>
+  </si>
+  <si>
+    <t>201605020406</t>
+  </si>
+  <si>
+    <t>孙鑫鑫</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+  </si>
+  <si>
+    <t>Java EE</t>
+  </si>
+  <si>
+    <t>Java EE 课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/course/index.html </t>
+  </si>
+  <si>
+    <t>第1单元</t>
+  </si>
+  <si>
+    <t>/course/unit_1/index.html</t>
+  </si>
+  <si>
+    <t>第2单元</t>
+  </si>
+  <si>
+    <t>第3单元</t>
+  </si>
+  <si>
+    <t>第4单元</t>
+  </si>
+  <si>
+    <t>第5单元</t>
+  </si>
+  <si>
+    <t>第6单元</t>
+  </si>
+  <si>
+    <t>第7单元</t>
+  </si>
+  <si>
+    <t>第8单元</t>
+  </si>
+  <si>
+    <t>第9单元</t>
+  </si>
+  <si>
+    <t>201608040202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>201608040201</t>
-  </si>
-  <si>
-    <t>马雅婷</t>
-  </si>
-  <si>
-    <t>软件162</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>201608040202</t>
-  </si>
-  <si>
-    <t>房晔</t>
-  </si>
-  <si>
-    <t>201608040203</t>
-  </si>
-  <si>
-    <t>花永香</t>
-  </si>
-  <si>
-    <t>201608040204</t>
-  </si>
-  <si>
-    <t>杨曼珍</t>
-  </si>
-  <si>
-    <t>201608040205</t>
-  </si>
-  <si>
-    <t>杨旭东</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>201608040206</t>
-  </si>
-  <si>
-    <t>马茼茼</t>
-  </si>
-  <si>
-    <t>201608040207</t>
-  </si>
-  <si>
-    <t>徐银福</t>
-  </si>
-  <si>
-    <t>201608040208</t>
-  </si>
-  <si>
-    <t>吕强</t>
-  </si>
-  <si>
-    <t>201608040209</t>
-  </si>
-  <si>
-    <t>张明根</t>
-  </si>
-  <si>
-    <t>201608040210</t>
-  </si>
-  <si>
-    <t>候捷</t>
-  </si>
-  <si>
-    <t>201608040211</t>
-  </si>
-  <si>
-    <t>张耀晖</t>
-  </si>
-  <si>
-    <t>201608040212</t>
-  </si>
-  <si>
-    <t>邹过</t>
-  </si>
-  <si>
-    <t>201608040213</t>
-  </si>
-  <si>
-    <t>曹超强</t>
-  </si>
-  <si>
-    <t>201608040214</t>
-  </si>
-  <si>
-    <t>朱登航</t>
-  </si>
-  <si>
-    <t>201608040215</t>
-  </si>
-  <si>
-    <t>黄景帅</t>
-  </si>
-  <si>
-    <t>201608040216</t>
-  </si>
-  <si>
-    <t>张帅印</t>
-  </si>
-  <si>
-    <t>201608040217</t>
-  </si>
-  <si>
-    <t>孙艺轩</t>
-  </si>
-  <si>
-    <t>201608040218</t>
-  </si>
-  <si>
-    <t>赵向阳</t>
-  </si>
-  <si>
-    <t>201608040219</t>
-  </si>
-  <si>
-    <t>许帅毅</t>
-  </si>
-  <si>
-    <t>201608040220</t>
-  </si>
-  <si>
-    <t>薛二伟</t>
-  </si>
-  <si>
-    <t>201608040221</t>
-  </si>
-  <si>
-    <t>王宏飞</t>
-  </si>
-  <si>
-    <t>201608040222</t>
-  </si>
-  <si>
-    <t>姬华凯</t>
-  </si>
-  <si>
-    <t>201608040223</t>
-  </si>
-  <si>
-    <t>刘源</t>
-  </si>
-  <si>
-    <t>201608040224</t>
-  </si>
-  <si>
-    <t>徐名阳</t>
-  </si>
-  <si>
-    <t>201608040225</t>
-  </si>
-  <si>
-    <t>郭志良</t>
-  </si>
-  <si>
-    <t>201608040226</t>
-  </si>
-  <si>
-    <t>苏俊铭</t>
-  </si>
-  <si>
-    <t>201608040227</t>
-  </si>
-  <si>
-    <t>曾泽兴</t>
-  </si>
-  <si>
-    <t>201608040228</t>
-  </si>
-  <si>
-    <t>卢思童</t>
-  </si>
-  <si>
-    <t>201608040229</t>
-  </si>
-  <si>
-    <t>朱才富</t>
-  </si>
-  <si>
-    <t>201608040230</t>
-  </si>
-  <si>
-    <t>曾辉祥</t>
-  </si>
-  <si>
-    <t>201608040232</t>
-  </si>
-  <si>
-    <t>吕鑫</t>
-  </si>
-  <si>
-    <t>201608040233</t>
-  </si>
-  <si>
-    <t>高建平</t>
-  </si>
-  <si>
-    <t>201608040234</t>
-  </si>
-  <si>
-    <t>支友盟</t>
-  </si>
-  <si>
-    <t>201608040235</t>
-  </si>
-  <si>
-    <t>王斌</t>
-  </si>
-  <si>
-    <t>201606020104</t>
-  </si>
-  <si>
-    <t>包盈盈</t>
-  </si>
-  <si>
-    <t>201605020129</t>
-  </si>
-  <si>
-    <t>陈金新</t>
-  </si>
-  <si>
-    <t>201508040207</t>
-  </si>
-  <si>
-    <t>王浩杰</t>
-  </si>
-  <si>
-    <t>201508040205</t>
-  </si>
-  <si>
-    <t>刘星辰</t>
-  </si>
-  <si>
-    <t>201508040222</t>
-  </si>
-  <si>
-    <t>杨铭</t>
-  </si>
-  <si>
-    <t>201508040218</t>
-  </si>
-  <si>
-    <t>王自勇</t>
-  </si>
-  <si>
-    <t>201608040101</t>
-  </si>
-  <si>
-    <t>许孟琪</t>
-  </si>
-  <si>
-    <t>软件161</t>
-  </si>
-  <si>
-    <t>201608040102</t>
-  </si>
-  <si>
-    <t>位欣欣</t>
-  </si>
-  <si>
-    <t>201608040103</t>
-  </si>
-  <si>
-    <t>刘光月</t>
-  </si>
-  <si>
-    <t>201608040104</t>
-  </si>
-  <si>
-    <t>席安祥</t>
-  </si>
-  <si>
-    <t>201608040105</t>
-  </si>
-  <si>
-    <t>王海</t>
-  </si>
-  <si>
-    <t>201608040106</t>
-  </si>
-  <si>
-    <t>刘佳伟</t>
-  </si>
-  <si>
-    <t>201608040107</t>
-  </si>
-  <si>
-    <t>吴帆</t>
-  </si>
-  <si>
-    <t>201608040108</t>
-  </si>
-  <si>
-    <t>胡曦伟</t>
-  </si>
-  <si>
-    <t>201608040109</t>
-  </si>
-  <si>
-    <t>张浩</t>
-  </si>
-  <si>
-    <t>201608040110</t>
-  </si>
-  <si>
-    <t>刘奇</t>
-  </si>
-  <si>
-    <t>201608040111</t>
-  </si>
-  <si>
-    <t>李朋辉</t>
-  </si>
-  <si>
-    <t>201608040112</t>
-  </si>
-  <si>
-    <t>魏来凯</t>
-  </si>
-  <si>
-    <t>201608040113</t>
-  </si>
-  <si>
-    <t>姚伯乐</t>
-  </si>
-  <si>
-    <t>201608040114</t>
-  </si>
-  <si>
-    <t>刘忠亚</t>
-  </si>
-  <si>
-    <t>201608040115</t>
-  </si>
-  <si>
-    <t>王一卓</t>
-  </si>
-  <si>
-    <t>201608040116</t>
-  </si>
-  <si>
-    <t>李文博</t>
-  </si>
-  <si>
-    <t>201608040117</t>
-  </si>
-  <si>
-    <t>史谨</t>
-  </si>
-  <si>
-    <t>201608040118</t>
-  </si>
-  <si>
-    <t>庞棣</t>
-  </si>
-  <si>
-    <t>孙运升</t>
-  </si>
-  <si>
-    <t>201608040119</t>
-  </si>
-  <si>
-    <t>李学勇</t>
-  </si>
-  <si>
-    <t>201608040120</t>
-  </si>
-  <si>
-    <t>郭起</t>
-  </si>
-  <si>
-    <t>201608040121</t>
-  </si>
-  <si>
-    <t>刘怿民</t>
-  </si>
-  <si>
-    <t>201608040122</t>
-  </si>
-  <si>
-    <t>张宏权</t>
-  </si>
-  <si>
-    <t>201608040123</t>
-  </si>
-  <si>
-    <t>周成</t>
-  </si>
-  <si>
-    <t>201608040124</t>
-  </si>
-  <si>
-    <t>孙天越</t>
-  </si>
-  <si>
-    <t>201608040125</t>
-  </si>
-  <si>
-    <t>黄志高</t>
-  </si>
-  <si>
-    <t>201608040126</t>
-  </si>
-  <si>
-    <t>邹龙康</t>
-  </si>
-  <si>
-    <t>201608040127</t>
-  </si>
-  <si>
-    <t>刘宇芹</t>
-  </si>
-  <si>
-    <t>201608040128</t>
-  </si>
-  <si>
-    <t>杜清清</t>
-  </si>
-  <si>
-    <t>201608040131</t>
-  </si>
-  <si>
-    <t>刘浩</t>
-  </si>
-  <si>
-    <t>201608040132</t>
-  </si>
-  <si>
-    <t>方军</t>
-  </si>
-  <si>
-    <t>201608040133</t>
-  </si>
-  <si>
-    <t>徐子亮</t>
-  </si>
-  <si>
-    <t>201608040134</t>
-  </si>
-  <si>
-    <t>刘怡策</t>
-  </si>
-  <si>
-    <t>201608040135</t>
-  </si>
-  <si>
-    <t>蔡明</t>
-  </si>
-  <si>
-    <t>201508040109</t>
-  </si>
-  <si>
-    <t>张金登</t>
-  </si>
-  <si>
-    <t>201615010103</t>
-  </si>
-  <si>
-    <t>谢欣旖 </t>
-  </si>
-  <si>
-    <t>201605020406</t>
-  </si>
-  <si>
-    <t>孙鑫鑫</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>PARENT_ID</t>
-  </si>
-  <si>
-    <t>Java EE</t>
-  </si>
-  <si>
-    <t>Java EE 课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/course/index.html </t>
-  </si>
-  <si>
-    <t>第1单元</t>
-  </si>
-  <si>
-    <t>/course/unit_1/index.html</t>
-  </si>
-  <si>
-    <t>第2单元</t>
-  </si>
-  <si>
-    <t>第3单元</t>
-  </si>
-  <si>
-    <t>第4单元</t>
-  </si>
-  <si>
-    <t>第5单元</t>
-  </si>
-  <si>
-    <t>第6单元</t>
-  </si>
-  <si>
-    <t>第7单元</t>
-  </si>
-  <si>
-    <t>第8单元</t>
-  </si>
-  <si>
-    <t>第9单元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,151 +601,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,194 +620,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1076,255 +751,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1364,68 +797,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1712,25 +1101,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1753,21 +1142,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="9">
         <v>19</v>
@@ -1776,21 +1165,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="9">
         <v>19</v>
@@ -1799,21 +1188,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>19</v>
@@ -1822,21 +1211,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="9">
         <v>19</v>
@@ -1845,21 +1234,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="9">
         <v>19</v>
@@ -1868,21 +1257,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="9">
         <v>20</v>
@@ -1891,21 +1280,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
@@ -1914,21 +1303,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9">
         <v>19</v>
@@ -1937,21 +1326,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9">
         <v>19</v>
@@ -1960,21 +1349,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="9">
         <v>19</v>
@@ -1983,21 +1372,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="9">
         <v>19</v>
@@ -2006,21 +1395,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="9">
         <v>19</v>
@@ -2029,21 +1418,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="9">
         <v>20</v>
@@ -2052,21 +1441,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="9">
         <v>20</v>
@@ -2075,21 +1464,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="9">
         <v>19</v>
@@ -2098,44 +1487,44 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9">
+        <v>19</v>
+      </c>
+      <c r="G17" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="9">
-        <v>19</v>
-      </c>
-      <c r="G17" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="9">
         <v>19</v>
@@ -2144,21 +1533,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="9">
         <v>19</v>
@@ -2167,21 +1556,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="9">
         <v>19</v>
@@ -2190,21 +1579,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="9">
         <v>20</v>
@@ -2213,21 +1602,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="9">
         <v>20</v>
@@ -2236,21 +1625,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="9">
         <v>19</v>
@@ -2259,21 +1648,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="9">
         <v>19</v>
@@ -2282,21 +1671,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="9">
         <v>19</v>
@@ -2305,21 +1694,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" s="9">
         <v>19</v>
@@ -2328,21 +1717,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="9">
         <v>19</v>
@@ -2351,21 +1740,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="9">
         <v>20</v>
@@ -2374,21 +1763,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="9">
         <v>20</v>
@@ -2397,21 +1786,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30" s="9">
         <v>19</v>
@@ -2420,21 +1809,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="9">
         <v>19</v>
@@ -2443,21 +1832,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" s="9">
         <v>19</v>
@@ -2466,21 +1855,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F33" s="9">
         <v>19</v>
@@ -2489,21 +1878,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="9">
         <v>19</v>
@@ -2512,21 +1901,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F35" s="9">
         <v>20</v>
@@ -2535,21 +1924,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F36" s="9">
         <v>20</v>
@@ -2558,21 +1947,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F37" s="9">
         <v>19</v>
@@ -2581,21 +1970,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F38" s="9">
         <v>19</v>
@@ -2604,21 +1993,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="9">
         <v>19</v>
@@ -2627,21 +2016,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40" s="9">
         <v>19</v>
@@ -2650,21 +2039,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F41" s="9">
         <v>19</v>
@@ -2673,21 +2062,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="9">
         <v>20</v>
@@ -2696,21 +2085,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="9">
         <v>20</v>
@@ -2719,21 +2108,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="9">
         <v>19</v>
@@ -2742,21 +2131,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="9">
         <v>19</v>
@@ -2765,21 +2154,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" s="9">
         <v>19</v>
@@ -2788,21 +2177,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F47" s="9">
         <v>19</v>
@@ -2811,21 +2200,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F48" s="9">
         <v>19</v>
@@ -2834,21 +2223,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F49" s="9">
         <v>20</v>
@@ -2857,21 +2246,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F50" s="9">
         <v>20</v>
@@ -2880,21 +2269,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" s="9">
         <v>19</v>
@@ -2903,21 +2292,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F52" s="9">
         <v>19</v>
@@ -2926,21 +2315,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F53" s="9">
         <v>19</v>
@@ -2949,21 +2338,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F54" s="9">
         <v>19</v>
@@ -2972,21 +2361,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F55" s="9">
         <v>19</v>
@@ -2995,21 +2384,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F56" s="9">
         <v>20</v>
@@ -3018,21 +2407,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F57" s="9">
         <v>20</v>
@@ -3041,21 +2430,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F58" s="9">
         <v>19</v>
@@ -3064,21 +2453,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="59" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59" s="9">
         <v>19</v>
@@ -3087,21 +2476,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="D60" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F60" s="9">
         <v>19</v>
@@ -3110,21 +2499,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F61" s="9">
         <v>19</v>
@@ -3133,21 +2522,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F62" s="9">
         <v>19</v>
@@ -3156,21 +2545,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F63" s="9">
         <v>20</v>
@@ -3179,21 +2568,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F64" s="9">
         <v>20</v>
@@ -3202,21 +2591,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F65" s="9">
         <v>19</v>
@@ -3225,21 +2614,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F66" s="9">
         <v>19</v>
@@ -3248,21 +2637,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F67" s="9">
         <v>19</v>
@@ -3271,21 +2660,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F68" s="9">
         <v>19</v>
@@ -3294,21 +2683,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F69" s="9">
         <v>19</v>
@@ -3317,21 +2706,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F70" s="9">
         <v>20</v>
@@ -3340,21 +2729,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="71" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F71" s="9">
         <v>20</v>
@@ -3363,21 +2752,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="72" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F72" s="9">
         <v>19</v>
@@ -3386,21 +2775,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="73" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F73" s="9">
         <v>19</v>
@@ -3409,21 +2798,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="74" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F74" s="9">
         <v>19</v>
@@ -3432,21 +2821,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="75" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F75" s="9">
         <v>19</v>
@@ -3455,21 +2844,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="76" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F76" s="9">
         <v>19</v>
@@ -3478,21 +2867,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="77" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" s="9">
         <v>20</v>
@@ -3501,21 +2890,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="78" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" s="9">
         <v>20</v>
@@ -3525,166 +2914,162 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="E1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/yibuzhiyao-sercive/src/main/resources/student_software.xlsx
+++ b/yibuzhiyao-sercive/src/main/resources/student_software.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{52A3823C-2F93-4FA1-91C1-3E4D4D989BE1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14750" windowHeight="2200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="11940" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
     <sheet name="Course" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1:G15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>序号</t>
   </si>
@@ -41,6 +40,9 @@
     <t>分数</t>
   </si>
   <si>
+    <t>201608040201</t>
+  </si>
+  <si>
     <t>马雅婷</t>
   </si>
   <si>
@@ -50,6 +52,9 @@
     <t>女</t>
   </si>
   <si>
+    <t>201608040202</t>
+  </si>
+  <si>
     <t>房晔</t>
   </si>
   <si>
@@ -561,24 +566,20 @@
   </si>
   <si>
     <t>第9单元</t>
-  </si>
-  <si>
-    <t>201608040202</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>201608040201</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,13 +602,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,8 +759,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -751,13 +1076,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -797,24 +1364,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1101,25 +1712,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1142,21 +1753,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9">
         <v>19</v>
@@ -1165,21 +1776,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="9">
         <v>19</v>
@@ -1188,21 +1799,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>19</v>
@@ -1211,21 +1822,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9">
         <v>19</v>
@@ -1234,21 +1845,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9">
         <v>19</v>
@@ -1257,21 +1868,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="9">
         <v>20</v>
@@ -1280,21 +1891,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
@@ -1303,21 +1914,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="9">
         <v>19</v>
@@ -1326,21 +1937,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="9">
         <v>19</v>
@@ -1349,21 +1960,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="9">
         <v>19</v>
@@ -1372,21 +1983,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="9">
         <v>19</v>
@@ -1395,21 +2006,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9">
         <v>19</v>
@@ -1418,21 +2029,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="9">
         <v>20</v>
@@ -1441,21 +2052,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F15" s="9">
         <v>20</v>
@@ -1464,21 +2075,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F16" s="9">
         <v>19</v>
@@ -1487,21 +2098,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F17" s="9">
         <v>19</v>
@@ -1510,21 +2121,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" s="9">
         <v>19</v>
@@ -1533,21 +2144,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F19" s="9">
         <v>19</v>
@@ -1556,21 +2167,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="9">
         <v>19</v>
@@ -1579,21 +2190,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" s="9">
         <v>20</v>
@@ -1602,21 +2213,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="9">
         <v>20</v>
@@ -1625,21 +2236,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F23" s="9">
         <v>19</v>
@@ -1648,21 +2259,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="9">
         <v>19</v>
@@ -1671,21 +2282,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F25" s="9">
         <v>19</v>
@@ -1694,21 +2305,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F26" s="9">
         <v>19</v>
@@ -1717,21 +2328,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27" s="9">
         <v>19</v>
@@ -1740,21 +2351,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F28" s="9">
         <v>20</v>
@@ -1763,21 +2374,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F29" s="9">
         <v>20</v>
@@ -1786,21 +2397,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F30" s="9">
         <v>19</v>
@@ -1809,21 +2420,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F31" s="9">
         <v>19</v>
@@ -1832,21 +2443,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F32" s="9">
         <v>19</v>
@@ -1855,21 +2466,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F33" s="9">
         <v>19</v>
@@ -1878,21 +2489,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F34" s="9">
         <v>19</v>
@@ -1901,21 +2512,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F35" s="9">
         <v>20</v>
@@ -1924,21 +2535,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="9">
         <v>20</v>
@@ -1947,21 +2558,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" s="9">
         <v>19</v>
@@ -1970,21 +2581,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F38" s="9">
         <v>19</v>
@@ -1993,21 +2604,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F39" s="9">
         <v>19</v>
@@ -2016,21 +2627,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="9">
         <v>19</v>
@@ -2039,21 +2650,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F41" s="9">
         <v>19</v>
@@ -2062,21 +2673,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" s="9">
         <v>20</v>
@@ -2085,21 +2696,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" s="9">
         <v>20</v>
@@ -2108,21 +2719,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" s="9">
         <v>19</v>
@@ -2131,21 +2742,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" s="9">
         <v>19</v>
@@ -2154,21 +2765,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F46" s="9">
         <v>19</v>
@@ -2177,21 +2788,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F47" s="9">
         <v>19</v>
@@ -2200,21 +2811,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F48" s="9">
         <v>19</v>
@@ -2223,21 +2834,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F49" s="9">
         <v>20</v>
@@ -2246,21 +2857,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F50" s="9">
         <v>20</v>
@@ -2269,21 +2880,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F51" s="9">
         <v>19</v>
@@ -2292,21 +2903,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F52" s="9">
         <v>19</v>
@@ -2315,21 +2926,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F53" s="9">
         <v>19</v>
@@ -2338,21 +2949,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F54" s="9">
         <v>19</v>
@@ -2361,21 +2972,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F55" s="9">
         <v>19</v>
@@ -2384,21 +2995,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F56" s="9">
         <v>20</v>
@@ -2407,21 +3018,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F57" s="9">
         <v>20</v>
@@ -2430,21 +3041,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F58" s="9">
         <v>19</v>
@@ -2453,21 +3064,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F59" s="9">
         <v>19</v>
@@ -2476,21 +3087,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F60" s="9">
         <v>19</v>
@@ -2499,21 +3110,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F61" s="9">
         <v>19</v>
@@ -2522,21 +3133,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F62" s="9">
         <v>19</v>
@@ -2545,21 +3156,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F63" s="9">
         <v>20</v>
@@ -2568,21 +3179,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F64" s="9">
         <v>20</v>
@@ -2591,21 +3202,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F65" s="9">
         <v>19</v>
@@ -2614,21 +3225,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F66" s="9">
         <v>19</v>
@@ -2637,21 +3248,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F67" s="9">
         <v>19</v>
@@ -2660,21 +3271,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F68" s="9">
         <v>19</v>
@@ -2683,21 +3294,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F69" s="9">
         <v>19</v>
@@ -2706,21 +3317,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F70" s="9">
         <v>20</v>
@@ -2729,21 +3340,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F71" s="9">
         <v>20</v>
@@ -2752,21 +3363,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F72" s="9">
         <v>19</v>
@@ -2775,21 +3386,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F73" s="9">
         <v>19</v>
@@ -2798,21 +3409,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F74" s="9">
         <v>19</v>
@@ -2821,21 +3432,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F75" s="9">
         <v>19</v>
@@ -2844,21 +3455,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F76" s="9">
         <v>19</v>
@@ -2867,21 +3478,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A77" s="13">
         <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F77" s="9">
         <v>20</v>
@@ -2890,21 +3501,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A78" s="14">
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F78" s="9">
         <v>20</v>
@@ -2914,162 +3525,166 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>